--- a/Asset Data/Africa/Asset_Data_Africa/Coal Plants/africa_coal_plants_main.xlsx
+++ b/Asset Data/Africa/Asset_Data_Africa/Coal Plants/africa_coal_plants_main.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\Africa\Asset_Data_Africa\Coal Plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{185DA7D8-1905-4A40-928B-0CBF783FBD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11C797-25C2-4FD9-988B-5916F4115D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BD77A84E-9835-4E0A-8AB6-9773CE508B26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD77A84E-9835-4E0A-8AB6-9773CE508B26}"/>
   </bookViews>
   <sheets>
     <sheet name="africa_coal_plants_main" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -182,48 +195,12 @@
     <t>Egbema Power Plant Umuezi Mmahu</t>
   </si>
   <si>
-    <t>CN-10</t>
-  </si>
-  <si>
-    <t>Oji Termal Station</t>
-  </si>
-  <si>
-    <t>CN-11</t>
-  </si>
-  <si>
-    <t>MOSRA ENERGY LTD</t>
-  </si>
-  <si>
-    <t>CN-12</t>
-  </si>
-  <si>
-    <t>Okoloma Gas Plant</t>
-  </si>
-  <si>
-    <t>CN-13</t>
-  </si>
-  <si>
-    <t>National Integrated Power Project</t>
-  </si>
-  <si>
     <t>CN-14</t>
   </si>
   <si>
     <t>Shiroro Power Station</t>
   </si>
   <si>
-    <t>CN-15</t>
-  </si>
-  <si>
-    <t>African Natural Resources &amp; Mines Limited</t>
-  </si>
-  <si>
-    <t>CN-16</t>
-  </si>
-  <si>
-    <t>Ethiope Energy Ltd</t>
-  </si>
-  <si>
     <t>CN-17</t>
   </si>
   <si>
@@ -248,12 +225,6 @@
     <t>Climate Trace</t>
   </si>
   <si>
-    <t>CU-1</t>
-  </si>
-  <si>
-    <t>Mubuku I Hydroelectric Power Station</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -263,66 +234,6 @@
     <t>Mpanga Power Station</t>
   </si>
   <si>
-    <t>CU-3</t>
-  </si>
-  <si>
-    <t>Bugoye Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-4</t>
-  </si>
-  <si>
-    <t>Nkusi Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-5</t>
-  </si>
-  <si>
-    <t>Mubuku III Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-6</t>
-  </si>
-  <si>
-    <t>Nyagak Hydro Power Station</t>
-  </si>
-  <si>
-    <t>CU-7</t>
-  </si>
-  <si>
-    <t>Mahoma Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-8</t>
-  </si>
-  <si>
-    <t>Nkonge Solar Power Station</t>
-  </si>
-  <si>
-    <t>CU-9</t>
-  </si>
-  <si>
-    <t>Uganda Electricity Generation Company Limited</t>
-  </si>
-  <si>
-    <t>CU-10</t>
-  </si>
-  <si>
-    <t>Kabulasoke Solar Power Station</t>
-  </si>
-  <si>
-    <t>CU-11</t>
-  </si>
-  <si>
-    <t>Kisiizi Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-12</t>
-  </si>
-  <si>
-    <t>Namugoga Solar Power Station</t>
-  </si>
-  <si>
     <t>CU-13</t>
   </si>
   <si>
@@ -347,30 +258,6 @@
     <t>Lugazi Thermal Power Station</t>
   </si>
   <si>
-    <t>CU-17</t>
-  </si>
-  <si>
-    <t>Nyamagasani I Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-18</t>
-  </si>
-  <si>
-    <t>Sindila Hydroelectric Power Station</t>
-  </si>
-  <si>
-    <t>CU-19</t>
-  </si>
-  <si>
-    <t>Kakira Thermal Power Station</t>
-  </si>
-  <si>
-    <t>CU-20</t>
-  </si>
-  <si>
-    <t>Ndugutu Hydroelectric Plant</t>
-  </si>
-  <si>
     <t>CG-1</t>
   </si>
   <si>
@@ -404,12 +291,6 @@
     <t>Cenpower Generation Company Limited</t>
   </si>
   <si>
-    <t>CG-6</t>
-  </si>
-  <si>
-    <t>Kaleo Solar Power Plant</t>
-  </si>
-  <si>
     <t>CG-7</t>
   </si>
   <si>
@@ -422,52 +303,16 @@
     <t>Ameri Power Plant</t>
   </si>
   <si>
-    <t>CG-9</t>
-  </si>
-  <si>
-    <t>Navrongo Solar Power Station</t>
-  </si>
-  <si>
     <t>CG-10</t>
   </si>
   <si>
     <t>GPGC Power Plant</t>
   </si>
   <si>
-    <t>CG-11</t>
-  </si>
-  <si>
-    <t>AKSA ENERGY GHANA</t>
-  </si>
-  <si>
-    <t>CG-12</t>
-  </si>
-  <si>
-    <t>Epl Bridge power plant</t>
-  </si>
-  <si>
-    <t>CG-13</t>
-  </si>
-  <si>
-    <t>Nuclear Power Ghana</t>
-  </si>
-  <si>
     <t>CG-14</t>
   </si>
   <si>
     <t>Bridge Power Project</t>
-  </si>
-  <si>
-    <t>CG-15</t>
-  </si>
-  <si>
-    <t>Gomoa Onyaadze Solar Power Station</t>
-  </si>
-  <si>
-    <t>CG-16</t>
-  </si>
-  <si>
-    <t>Nzema Solar Power Station</t>
   </si>
   <si>
     <t>CS-1</t>
@@ -693,7 +538,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +716,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1035,7 +886,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,6 +899,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1424,14 +1276,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6D530-2543-4A55-B9B2-B90C85DBA42D}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T57"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1563,7 +1416,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="6">
         <f>((L2*S2)/1000)*0.05</f>
         <v>71.569200000000009</v>
       </c>
@@ -1603,7 +1456,7 @@
         <v>111</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L57" si="0">(K3*1000*24*365)</f>
+        <f t="shared" ref="L3:L29" si="0">(K3*1000*24*365)</f>
         <v>972360000</v>
       </c>
       <c r="M3">
@@ -1611,7 +1464,7 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N57" si="1">((L3*M3)/1000)*0.05</f>
+        <f t="shared" ref="N3:N29" si="1">((L3*M3)/1000)*0.05</f>
         <v>17.988660000000003</v>
       </c>
       <c r="O3">
@@ -1619,7 +1472,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P57" si="2">((L3*O3)/1000)*0.05</f>
+        <f t="shared" ref="P3:P29" si="2">((L3*O3)/1000)*0.05</f>
         <v>9.237420000000002</v>
       </c>
       <c r="Q3">
@@ -1627,15 +1480,15 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R57" si="3">((L3*Q3)/1000)*0.05</f>
+        <f t="shared" ref="R3:R29" si="3">((L3*Q3)/1000)*0.05</f>
         <v>350.04960000000005</v>
       </c>
       <c r="S3">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T57" si="4">((L3*S3)/1000)*0.05</f>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T29" si="4">((L3*S3)/1000)*0.05</f>
         <v>209.05740000000003</v>
       </c>
       <c r="U3" t="s">
@@ -1705,7 +1558,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="6">
         <f t="shared" si="4"/>
         <v>113.004</v>
       </c>
@@ -1776,7 +1629,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <f t="shared" si="4"/>
         <v>254.25900000000001</v>
       </c>
@@ -1847,7 +1700,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <f t="shared" si="4"/>
         <v>1130.04</v>
       </c>
@@ -1903,7 +1756,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1956,7 +1809,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2009,7 +1862,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2062,7 +1915,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2075,10 +1928,10 @@
         <v>54</v>
       </c>
       <c r="C11">
-        <v>6.2622331000000004</v>
+        <v>9.9731205999999997</v>
       </c>
       <c r="D11">
-        <v>7.2770691000000003</v>
+        <v>6.8343433999999998</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -2115,7 +1968,7 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2128,17 +1981,32 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>7.6750691</v>
+        <v>9.6309839999999998</v>
       </c>
       <c r="D12">
-        <v>7.6900814999999998</v>
+        <v>10.818144999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>876000000</v>
       </c>
       <c r="M12">
         <f>Sheet1!$D$5</f>
@@ -2146,7 +2014,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.206</v>
       </c>
       <c r="O12">
         <f>Sheet1!$D$2</f>
@@ -2154,7 +2022,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.322000000000001</v>
       </c>
       <c r="Q12">
         <f>Sheet1!$D$3</f>
@@ -2162,36 +2030,48 @@
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>315.36</v>
       </c>
       <c r="S12">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>188.34000000000003</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>4.8444577999999998</v>
+        <v>7.4108000000000001</v>
       </c>
       <c r="D13">
-        <v>7.2534578999999999</v>
+        <v>8.9739000000000004</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>43.9</v>
+      </c>
+      <c r="K13">
+        <v>43.9</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>384564000</v>
       </c>
       <c r="M13">
         <f>Sheet1!$D$5</f>
@@ -2199,7 +2079,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.1144340000000001</v>
       </c>
       <c r="O13">
         <f>Sheet1!$D$2</f>
@@ -2207,7 +2087,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6533580000000003</v>
       </c>
       <c r="Q13">
         <f>Sheet1!$D$3</f>
@@ -2215,32 +2095,35 @@
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>138.44304</v>
       </c>
       <c r="S13">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>82.681260000000009</v>
+      </c>
+      <c r="U13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14">
-        <v>6.5859319000000003</v>
+        <v>6.6400799999999996E-2</v>
       </c>
       <c r="D14">
-        <v>3.5231688999999999</v>
+        <v>30.321342900000001</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -2274,26 +2157,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>9.9731205999999997</v>
+        <v>0.63211569999999995</v>
       </c>
       <c r="D15">
-        <v>6.8343433999999998</v>
+        <v>34.158329600000002</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -2327,26 +2210,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>0.63722049999999997</v>
+      </c>
+      <c r="D16">
+        <v>34.116661899999997</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16">
-        <v>9.4624813999999997</v>
-      </c>
-      <c r="D16">
-        <v>7.3679633000000004</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -2380,26 +2263,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <v>4.8248094999999998</v>
+        <v>0.4502929</v>
       </c>
       <c r="D17">
-        <v>7.0389115999999996</v>
+        <v>33.185575999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -2433,45 +2316,30 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>9.6309839999999998</v>
+        <v>0.37985479999999999</v>
       </c>
       <c r="D18">
-        <v>10.818144999999999</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
+        <v>32.945019700000003</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>876000000</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f>Sheet1!$D$5</f>
@@ -2479,7 +2347,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>16.206</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <f>Sheet1!$D$2</f>
@@ -2487,7 +2355,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
-        <v>8.322000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <f>Sheet1!$D$3</f>
@@ -2495,48 +2363,36 @@
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>315.36</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="6">
         <f t="shared" si="4"/>
-        <v>188.34000000000003</v>
-      </c>
-      <c r="U18" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19">
-        <v>7.4108000000000001</v>
+        <v>5.6788483999999997</v>
       </c>
       <c r="D19">
-        <v>8.9739000000000004</v>
+        <v>4.6797199999999997E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19">
-        <v>43.9</v>
-      </c>
-      <c r="K19">
-        <v>43.9</v>
+        <v>76</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>384564000</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f>Sheet1!$D$5</f>
@@ -2544,7 +2400,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>7.1144340000000001</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <f>Sheet1!$D$2</f>
@@ -2552,7 +2408,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>3.6533580000000003</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <f>Sheet1!$D$3</f>
@@ -2560,35 +2416,32 @@
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>138.44304</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="6">
         <f t="shared" si="4"/>
-        <v>82.681260000000009</v>
-      </c>
-      <c r="U19" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>5.7360445000000002</v>
+      </c>
+      <c r="D20">
+        <v>9.0933999999999997E-3</v>
+      </c>
+      <c r="H20" t="s">
         <v>76</v>
-      </c>
-      <c r="C20">
-        <v>0.3183067</v>
-      </c>
-      <c r="D20">
-        <v>30.100384099999999</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -2622,26 +2475,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>6.6400799999999996E-2</v>
+        <v>5.6747055</v>
       </c>
       <c r="D21">
-        <v>30.321342900000001</v>
+        <v>1.1861E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -2675,26 +2528,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>0.30536000000000002</v>
+        <v>4.9687311000000003</v>
       </c>
       <c r="D22">
-        <v>30.0979116</v>
+        <v>-1.6664433999999999</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
@@ -2728,26 +2581,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23">
-        <v>1.1204641</v>
+        <v>5.6808455000000002</v>
       </c>
       <c r="D23">
-        <v>30.668633799999999</v>
+        <v>4.05072E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -2781,26 +2634,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>0.260349</v>
+        <v>5.6815315000000002</v>
       </c>
       <c r="D24">
-        <v>30.149363699999999</v>
+        <v>4.0977100000000002E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
@@ -2834,26 +2687,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>2.4282002</v>
+        <v>4.9742907000000001</v>
       </c>
       <c r="D25">
-        <v>30.9733178</v>
+        <v>-1.6595719</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
@@ -2887,26 +2740,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>0.47853869999999998</v>
+        <v>5.6980491000000004</v>
       </c>
       <c r="D26">
-        <v>30.273048299999999</v>
+        <v>2.2923900000000001E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
@@ -2940,26 +2793,26 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>0.57614430000000005</v>
+        <v>5.6773749000000002</v>
       </c>
       <c r="D27">
-        <v>31.7195459</v>
+        <v>1.84963E-2</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
@@ -2993,26 +2846,38 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>0.34466150000000001</v>
+        <v>14.796229</v>
       </c>
       <c r="D28">
-        <v>32.593772399999999</v>
+        <v>-17.039687000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
@@ -3046,26 +2911,41 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>14.686987999999999</v>
+      </c>
+      <c r="D29">
+        <v>-17.213926000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
         <v>95</v>
       </c>
-      <c r="C29">
-        <v>0.16218099999999999</v>
-      </c>
-      <c r="D29">
-        <v>31.802910000000001</v>
-      </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>125</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
@@ -3099,1522 +2979,11 @@
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30">
-        <v>-0.99579260000000003</v>
-      </c>
-      <c r="D30">
-        <v>29.961840599999999</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>0.17251649999999999</v>
-      </c>
-      <c r="D31">
-        <v>32.568187100000003</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32">
-        <v>0.63211569999999995</v>
-      </c>
-      <c r="D32">
-        <v>34.158329600000002</v>
-      </c>
-      <c r="H32" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33">
-        <v>0.63722049999999997</v>
-      </c>
-      <c r="D33">
-        <v>34.116661899999997</v>
-      </c>
-      <c r="H33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34">
-        <v>0.4502929</v>
-      </c>
-      <c r="D34">
-        <v>33.185575999999998</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35">
-        <v>0.37985479999999999</v>
-      </c>
-      <c r="D35">
-        <v>32.945019700000003</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36">
-        <v>0.14154800000000001</v>
-      </c>
-      <c r="D36">
-        <v>29.931688000000001</v>
-      </c>
-      <c r="H36" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37">
-        <v>0.68517629999999996</v>
-      </c>
-      <c r="D37">
-        <v>30.020296399999999</v>
-      </c>
-      <c r="H37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38">
-        <v>0.50891739999999996</v>
-      </c>
-      <c r="D38">
-        <v>33.2899691</v>
-      </c>
-      <c r="H38" t="s">
-        <v>77</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39">
-        <v>0.61562810000000001</v>
-      </c>
-      <c r="D39">
-        <v>29.979440700000001</v>
-      </c>
-      <c r="H39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40">
-        <v>5.6788483999999997</v>
-      </c>
-      <c r="D40">
-        <v>4.6797199999999997E-2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>118</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41">
-        <v>5.7360445000000002</v>
-      </c>
-      <c r="D41">
-        <v>9.0933999999999997E-3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>5.6747055</v>
-      </c>
-      <c r="D42">
-        <v>1.1861E-2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>118</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43">
-        <v>4.9687311000000003</v>
-      </c>
-      <c r="D43">
-        <v>-1.6664433999999999</v>
-      </c>
-      <c r="H43" t="s">
-        <v>118</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44">
-        <v>5.6808455000000002</v>
-      </c>
-      <c r="D44">
-        <v>4.05072E-2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>118</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45">
-        <v>10.1744488</v>
-      </c>
-      <c r="D45">
-        <v>-2.5343935000000002</v>
-      </c>
-      <c r="H45" t="s">
-        <v>118</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46">
-        <v>5.6815315000000002</v>
-      </c>
-      <c r="D46">
-        <v>4.0977100000000002E-2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>118</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47">
-        <v>4.9742907000000001</v>
-      </c>
-      <c r="D47">
-        <v>-1.6595719</v>
-      </c>
-      <c r="H47" t="s">
-        <v>118</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48">
-        <v>10.880055499999999</v>
-      </c>
-      <c r="D48">
-        <v>-1.1025221999999999</v>
-      </c>
-      <c r="H48" t="s">
-        <v>118</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49">
-        <v>5.6980491000000004</v>
-      </c>
-      <c r="D49">
-        <v>2.2923900000000001E-2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>118</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50">
-        <v>5.6942000999999998</v>
-      </c>
-      <c r="D50">
-        <v>2.49885E-2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>118</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51">
-        <v>5.6482659000000002</v>
-      </c>
-      <c r="D51">
-        <v>1.92137E-2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>118</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52">
-        <v>5.6126157000000001</v>
-      </c>
-      <c r="D52">
-        <v>-0.1808765</v>
-      </c>
-      <c r="H52" t="s">
-        <v>118</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53">
-        <v>5.6773749000000002</v>
-      </c>
-      <c r="D53">
-        <v>1.84963E-2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>118</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54">
-        <v>5.3460915</v>
-      </c>
-      <c r="D54">
-        <v>-0.70340519999999995</v>
-      </c>
-      <c r="H54" t="s">
-        <v>118</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55">
-        <v>5.0462464999999996</v>
-      </c>
-      <c r="D55">
-        <v>-2.4376758999999999</v>
-      </c>
-      <c r="H55" t="s">
-        <v>118</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56">
-        <v>14.796229</v>
-      </c>
-      <c r="D56">
-        <v>-17.039687000000001</v>
-      </c>
-      <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56">
-        <v>30</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57">
-        <v>14.686987999999999</v>
-      </c>
-      <c r="D57">
-        <v>-17.213926000000001</v>
-      </c>
-      <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57">
-        <v>125</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <f>Sheet1!$D$5</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f>Sheet1!$D$2</f>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <f>Sheet1!$D$3</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f>Sheet1!$D$4</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="U29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4642,48 +3011,48 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1">
         <v>0.19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <f>B2/1000</f>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <v>7.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D5" si="0">B3/1000</f>
@@ -4693,39 +3062,39 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1">
         <v>4.3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>4.3E-3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1">
         <f>AVERAGE(0.29,0.45)</f>
         <v>0.37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4758,20 +3127,20 @@
     </row>
     <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
